--- a/Projects/HENKELUS/Data/KPI Template - Working 5-11-2020 v4.xlsx
+++ b/Projects/HENKELUS/Data/KPI Template - Working 5-11-2020 v4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="276">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1040,16 +1040,13 @@
     <t xml:space="preserve">DATASET C BLOCK EXCLUDE VALUE 1</t>
   </si>
   <si>
+    <t xml:space="preserve">ARM &amp; HAMMER</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIDE SIMPLY</t>
   </si>
   <si>
-    <t xml:space="preserve">ARM &amp; HAMMER</t>
-  </si>
-  <si>
     <t xml:space="preserve">PUREX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parend Brand</t>
   </si>
   <si>
     <t xml:space="preserve">sub_brand</t>
@@ -1368,447 +1365,682 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="440">
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
+  <dxfs count="225">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1881,19 +2113,19 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="J2 D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2701,18 +2933,18 @@
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AG2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AG2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AG2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AG2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H35">
-    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="27"/>
+    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="10"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2733,37 +2965,37 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="J2 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
   </cols>
@@ -2876,10 +3108,10 @@
         <v>165</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -2936,16 +3168,16 @@
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BG2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2973,25 +3205,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AA2">
-    <cfRule type="containsText" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="28"/>
+    <cfRule type="containsText" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AA2">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$BG2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$BG2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BG2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$BG2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BG2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BG2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3014,21 +3246,21 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="J2 H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
@@ -3056,10 +3288,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>117</v>
@@ -3090,10 +3322,10 @@
         <v>78</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>16</v>
@@ -3148,24 +3380,24 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="J2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.31983805668016"/>
@@ -3237,7 +3469,7 @@
         <v>83</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>161</v>
@@ -3287,74 +3519,74 @@
   <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
+      <selection pane="topLeft" activeCell="BJ2" activeCellId="1" sqref="J2 BJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="64" min="64" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="65" style="0" width="8.57085020242915"/>
   </cols>
@@ -3568,7 +3800,7 @@
         <v>85</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H2" s="12" t="n">
         <f aca="false">TRUE()</f>
@@ -3714,28 +3946,28 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="1" sqref="J2 F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.1983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
@@ -3867,29 +4099,29 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="J2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
@@ -4009,18 +4241,18 @@
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AK2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AK2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AK2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AK2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K2">
-    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="27"/>
+    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="10"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4041,29 +4273,29 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="J2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
@@ -4194,24 +4426,24 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="1" sqref="J2 G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.31983805668016"/>
@@ -4306,19 +4538,19 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="J2 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="15" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="17" t="n">
         <v>1</v>
@@ -4356,10 +4588,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -4375,13 +4607,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -4396,16 +4628,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -4419,19 +4651,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -4444,22 +4676,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="F6" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -4471,25 +4703,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="F7" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -4500,28 +4732,28 @@
         <v>8</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="G8" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
@@ -4531,31 +4763,31 @@
         <v>9</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="I9" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>276</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -4564,34 +4796,34 @@
         <v>10</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="I10" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="K10" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,33 +4885,33 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="J2 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="85.3724696356275"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,16 +5115,16 @@
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AK3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AK3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AK3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AK3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$AK3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4937,27 +5169,27 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="J2 M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.2793522267206"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.49797570850202"/>
@@ -5074,36 +5306,36 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+      <selection pane="topLeft" activeCell="L28" activeCellId="1" sqref="J2 L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="86.9797570850202"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="87.7287449392713"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5510,7 +5742,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H7">
-    <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="27"/>
+    <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H7">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -5536,73 +5768,73 @@
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$AQ5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$AQ5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$AQ5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$AQ5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$AQ5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$AQ5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="33"/>
+    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$AQ6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$AQ6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$AQ6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AQ6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$AQ6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$AQ6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="40"/>
+    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$AQ7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$AQ7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$AQ7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AQ7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AQ7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AQ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="18"/>
+    <cfRule type="containsText" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$AQ7="Ready"</formula>
     </cfRule>
     <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -5637,18 +5869,18 @@
     <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AV2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AV2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AV2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AV2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$AV5="Ready"</formula>
     </cfRule>
     <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
@@ -5691,29 +5923,29 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="16" topLeftCell="G17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="1" sqref="J2 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="24" min="18" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="24" min="18" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
@@ -6210,18 +6442,18 @@
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:L5">
-    <cfRule type="containsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="27"/>
+    <cfRule type="containsText" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:J6">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -6247,48 +6479,48 @@
     <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J7">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$AR7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$AR7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$AR7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$AR7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$AR7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:J7">
-    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="34"/>
+    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="containsText" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="35"/>
+    <cfRule type="containsText" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$AR2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$AR2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$AR2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$AR2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$AR2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6325,16 +6557,16 @@
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$AR3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6368,62 +6600,62 @@
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$AR5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$AR5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$AR5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$AR5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$AR5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$AR5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$AR7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$AR7="Removed"</formula>
     </cfRule>
     <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
+    <cfRule type="containsText" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsText" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
+    <cfRule type="containsText" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$AR6="Templated"</formula>
     </cfRule>
     <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
@@ -6446,150 +6678,150 @@
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>$AR6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$AR6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$AR6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="28"/>
+    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$AR7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$AR7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$AR7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$AR7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$AR7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:P7">
-    <cfRule type="containsText" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="35"/>
+    <cfRule type="containsText" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:P7">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$AR7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$AR7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$AR7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$AR7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="42"/>
+    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$AR7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$AR7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$AR7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$AR7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$AR7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:T6">
-    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="49"/>
+    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:T6">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AR6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$AR6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$AR6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$AR6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$AR6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$AR6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:T7">
-    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="56"/>
+    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:T7">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$AR7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>$AR7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>$AR7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>$AR7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="containsText" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="69"/>
+    <cfRule type="containsText" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
     <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="0"/>
@@ -6615,25 +6847,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="containsText" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
+    <cfRule type="containsText" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$AR2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$AR2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6661,25 +6893,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="containsText" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
+    <cfRule type="containsText" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3">
-    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$AR3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$AR3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6707,25 +6939,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
-    <cfRule type="containsText" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
+    <cfRule type="containsText" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$AR4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$AR4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6753,25 +6985,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
-    <cfRule type="containsText" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
+    <cfRule type="containsText" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
-    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$AR5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$AR5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6799,25 +7031,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6">
-    <cfRule type="containsText" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
+    <cfRule type="containsText" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6">
-    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$AR6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$AR6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6845,25 +7077,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="containsText" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
+    <cfRule type="containsText" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$AR7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6891,25 +7123,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="containsText" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="56"/>
+    <cfRule type="containsText" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6937,25 +7169,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="containsText" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="56"/>
+    <cfRule type="containsText" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+    <cfRule type="expression" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6983,25 +7215,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="containsText" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="56"/>
+    <cfRule type="containsText" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$AR2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$AR2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$AR2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+    <cfRule type="expression" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$AR2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7024,13 +7256,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="J2 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7100,18 +7332,18 @@
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AG3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AG3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AG3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AG3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="27"/>
+    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -7154,56 +7386,56 @@
   </sheetPr>
   <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="1" sqref="J2 J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="27" min="25" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="27" min="25" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="45" min="45" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="49" min="49" style="0" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="50" min="50" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="0" width="6.31983805668016"/>
@@ -8033,27 +8265,27 @@
     <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:M5">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:M5">
-    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="19"/>
+    <cfRule type="containsText" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:K6">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -8088,18 +8320,18 @@
     <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
-    <cfRule type="containsText" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
+    <cfRule type="containsText" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
     <cfRule type="containsText" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="20"/>
@@ -8120,7 +8352,7 @@
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>$BO2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$BO2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8154,62 +8386,62 @@
     <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$BO4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$BO4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$BO4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$BO4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S3">
-    <cfRule type="containsText" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="48"/>
+    <cfRule type="containsText" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S3">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO3="Ready"</formula>
     </cfRule>
     <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$BO3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:W5">
-    <cfRule type="containsText" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
+    <cfRule type="containsText" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:W5">
-    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$BO5="Templated"</formula>
     </cfRule>
     <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
@@ -8232,148 +8464,148 @@
     <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:Q5">
-    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="28"/>
+    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:Q5">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="35"/>
+    <cfRule type="containsText" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:Q6">
-    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="42"/>
+    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:Q6">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="49"/>
+    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:Q7">
-    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="56"/>
+    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:Q7">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q7">
-    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="63"/>
+    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q7">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8410,36 +8642,36 @@
     <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8462,1102 +8694,1102 @@
     <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>$BO2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$BO2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AE5">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AE5">
-    <cfRule type="containsText" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="33"/>
+    <cfRule type="containsText" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AC6">
-    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AC6">
-    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="40"/>
+    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7:AC7">
-    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7:AC7">
-    <cfRule type="containsText" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="47"/>
+    <cfRule type="containsText" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2">
-    <cfRule type="containsText" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="48"/>
+    <cfRule type="containsText" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2">
-    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BO2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$BO2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$BO2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$BO2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AQ2">
-    <cfRule type="containsText" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="55"/>
+    <cfRule type="containsText" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AQ2">
-    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$BO2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$BO2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$BO2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$BO2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP4:AQ4">
-    <cfRule type="containsText" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="62"/>
+    <cfRule type="containsText" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP4:AQ4">
-    <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
+    <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$BO4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>$BO4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>$BO4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>$BO4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>$BO4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK3">
-    <cfRule type="containsText" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="69"/>
+    <cfRule type="containsText" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK3">
-    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
+    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
+    <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
+    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
+    <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
+    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BO3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AO5">
-    <cfRule type="containsText" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="75"/>
+    <cfRule type="containsText" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AO5">
-    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
+    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5">
-    <cfRule type="containsText" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="77"/>
+    <cfRule type="containsText" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5">
-    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
+    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
+    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
+    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
+    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
+    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AI5">
-    <cfRule type="containsText" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="81"/>
+    <cfRule type="containsText" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AI5">
-    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
+    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
+    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
+    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
+    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6">
-    <cfRule type="containsText" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="84"/>
+    <cfRule type="containsText" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF6">
-    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+    <cfRule type="expression" priority="220" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+    <cfRule type="expression" priority="221" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+    <cfRule type="expression" priority="222" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+    <cfRule type="expression" priority="223" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+    <cfRule type="expression" priority="224" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AI6">
-    <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="85"/>
+    <cfRule type="containsText" priority="225" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AI6">
-    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
+    <cfRule type="expression" priority="226" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
+    <cfRule type="expression" priority="227" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
+    <cfRule type="expression" priority="228" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
+    <cfRule type="expression" priority="229" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
+    <cfRule type="expression" priority="230" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
+    <cfRule type="expression" priority="231" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF7">
-    <cfRule type="containsText" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="92"/>
+    <cfRule type="containsText" priority="232" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF7">
-    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
+    <cfRule type="expression" priority="233" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
+    <cfRule type="expression" priority="234" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
+    <cfRule type="expression" priority="235" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
+    <cfRule type="expression" priority="236" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
+    <cfRule type="expression" priority="237" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
+    <cfRule type="expression" priority="238" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7:AI7">
-    <cfRule type="containsText" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="99"/>
+    <cfRule type="containsText" priority="239" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7:AI7">
-    <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
+    <cfRule type="expression" priority="240" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
+    <cfRule type="expression" priority="241" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
+    <cfRule type="expression" priority="242" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
+    <cfRule type="expression" priority="243" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
+    <cfRule type="expression" priority="244" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
+    <cfRule type="expression" priority="245" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI7">
-    <cfRule type="containsText" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="106"/>
+    <cfRule type="containsText" priority="246" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AI7">
-    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
+    <cfRule type="expression" priority="247" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
+    <cfRule type="expression" priority="248" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
+    <cfRule type="expression" priority="249" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110">
+    <cfRule type="expression" priority="250" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
+    <cfRule type="expression" priority="251" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
+    <cfRule type="expression" priority="252" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AM6">
-    <cfRule type="containsText" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="113"/>
+    <cfRule type="containsText" priority="253" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AM6">
-    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
+    <cfRule type="expression" priority="254" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
+    <cfRule type="expression" priority="255" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
+    <cfRule type="expression" priority="256" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
+    <cfRule type="expression" priority="257" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
+    <cfRule type="expression" priority="258" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+    <cfRule type="expression" priority="259" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7:AM7">
-    <cfRule type="containsText" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="119"/>
+    <cfRule type="containsText" priority="260" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7:AM7">
-    <cfRule type="expression" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+    <cfRule type="expression" priority="261" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+    <cfRule type="expression" priority="262" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+    <cfRule type="expression" priority="263" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+    <cfRule type="expression" priority="264" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+    <cfRule type="expression" priority="265" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
+    <cfRule type="expression" priority="266" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL7">
-    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
+    <cfRule type="expression" priority="267" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>$BO7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
+    <cfRule type="expression" priority="268" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
+    <cfRule type="expression" priority="269" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
+    <cfRule type="expression" priority="270" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
+    <cfRule type="expression" priority="271" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
+    <cfRule type="expression" priority="272" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL7">
-    <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="123"/>
+    <cfRule type="containsText" priority="273" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AO2">
-    <cfRule type="containsText" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="123"/>
+    <cfRule type="containsText" priority="274" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AO2">
-    <cfRule type="containsText" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="123"/>
+    <cfRule type="containsText" priority="275" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AO2">
-    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
+    <cfRule type="expression" priority="276" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
+    <cfRule type="expression" priority="277" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
+    <cfRule type="expression" priority="278" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+    <cfRule type="expression" priority="279" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+    <cfRule type="expression" priority="280" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+    <cfRule type="expression" priority="281" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:W3">
-    <cfRule type="containsText" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="127"/>
+    <cfRule type="containsText" priority="282" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:W3">
-    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+    <cfRule type="expression" priority="283" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+    <cfRule type="expression" priority="284" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+    <cfRule type="expression" priority="285" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>$BO3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
+    <cfRule type="expression" priority="286" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
       <formula>$BO3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
+    <cfRule type="expression" priority="287" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>$BO3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="288" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
+    <cfRule type="expression" priority="288" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>$BO3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK3">
-    <cfRule type="containsText" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="131"/>
+    <cfRule type="containsText" priority="289" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK3">
-    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
+    <cfRule type="expression" priority="290" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>$BO3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
+    <cfRule type="expression" priority="291" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>$BO3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
+    <cfRule type="expression" priority="292" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>$BO3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
+    <cfRule type="expression" priority="293" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>$BO3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
+    <cfRule type="expression" priority="294" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>$BO3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
+    <cfRule type="expression" priority="295" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>$BO3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK3">
-    <cfRule type="containsText" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="132"/>
+    <cfRule type="containsText" priority="296" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK3">
-    <cfRule type="containsText" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="133"/>
+    <cfRule type="containsText" priority="297" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK3">
-    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
+    <cfRule type="expression" priority="298" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>$BO3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
+    <cfRule type="expression" priority="299" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>$BO3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
+    <cfRule type="expression" priority="300" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>$BO3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
+    <cfRule type="expression" priority="301" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>$BO3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
+    <cfRule type="expression" priority="302" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>$BO3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
+    <cfRule type="expression" priority="303" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>$BO3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AK4">
-    <cfRule type="containsText" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="135"/>
+    <cfRule type="containsText" priority="304" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5">
-    <cfRule type="containsText" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="135"/>
+    <cfRule type="containsText" priority="305" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5">
-    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136">
+    <cfRule type="expression" priority="306" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
+    <cfRule type="expression" priority="307" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
+    <cfRule type="expression" priority="308" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+    <cfRule type="expression" priority="309" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+    <cfRule type="expression" priority="310" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+    <cfRule type="expression" priority="311" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5">
-    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+    <cfRule type="expression" priority="312" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+    <cfRule type="expression" priority="313" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+    <cfRule type="expression" priority="314" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+    <cfRule type="expression" priority="315" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140">
+    <cfRule type="expression" priority="316" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="141">
+    <cfRule type="expression" priority="317" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AK5">
-    <cfRule type="containsText" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="142"/>
+    <cfRule type="containsText" priority="318" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
+    <cfRule type="expression" priority="319" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BI6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
+    <cfRule type="expression" priority="320" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BI6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
+    <cfRule type="expression" priority="321" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BI6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
+    <cfRule type="expression" priority="322" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BI6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
+    <cfRule type="expression" priority="323" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BI6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
+    <cfRule type="expression" priority="324" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BI6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="143"/>
+    <cfRule type="containsText" priority="325" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:S6">
-    <cfRule type="containsText" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="144"/>
+    <cfRule type="containsText" priority="326" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:S6">
-    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="145">
+    <cfRule type="expression" priority="327" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
+    <cfRule type="expression" priority="328" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
+    <cfRule type="expression" priority="329" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
+    <cfRule type="expression" priority="330" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
+    <cfRule type="expression" priority="331" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150">
+    <cfRule type="expression" priority="332" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AK6">
-    <cfRule type="containsText" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="151"/>
+    <cfRule type="containsText" priority="333" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AK6">
-    <cfRule type="containsText" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="152"/>
+    <cfRule type="containsText" priority="334" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AK6">
-    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
+    <cfRule type="expression" priority="335" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="154">
+    <cfRule type="expression" priority="336" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="155">
+    <cfRule type="expression" priority="337" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="156">
+    <cfRule type="expression" priority="338" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
+    <cfRule type="expression" priority="339" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
+    <cfRule type="expression" priority="340" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6">
-    <cfRule type="containsText" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="159"/>
+    <cfRule type="containsText" priority="341" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6">
-    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
+    <cfRule type="expression" priority="342" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161">
+    <cfRule type="expression" priority="343" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162">
+    <cfRule type="expression" priority="344" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="163">
+    <cfRule type="expression" priority="345" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
+    <cfRule type="expression" priority="346" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
+    <cfRule type="expression" priority="347" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="166"/>
+    <cfRule type="containsText" priority="348" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="167">
+    <cfRule type="expression" priority="349" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="168">
+    <cfRule type="expression" priority="350" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="169">
+    <cfRule type="expression" priority="351" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="170">
+    <cfRule type="expression" priority="352" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="171">
+    <cfRule type="expression" priority="353" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="172">
+    <cfRule type="expression" priority="354" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="173">
+    <cfRule type="expression" priority="355" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="174">
+    <cfRule type="expression" priority="356" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="175">
+    <cfRule type="expression" priority="357" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="176">
+    <cfRule type="expression" priority="358" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="177">
+    <cfRule type="expression" priority="359" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="178">
+    <cfRule type="expression" priority="360" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="containsText" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="179"/>
+    <cfRule type="containsText" priority="361" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="180"/>
+    <cfRule type="containsText" priority="362" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="181">
+    <cfRule type="expression" priority="363" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="182">
+    <cfRule type="expression" priority="364" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
+    <cfRule type="expression" priority="365" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184">
+    <cfRule type="expression" priority="366" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
+    <cfRule type="expression" priority="367" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
+    <cfRule type="expression" priority="368" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
+    <cfRule type="expression" priority="369" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
+    <cfRule type="expression" priority="370" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
+    <cfRule type="expression" priority="371" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190">
+    <cfRule type="expression" priority="372" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
+    <cfRule type="expression" priority="373" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="192">
+    <cfRule type="expression" priority="374" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="containsText" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="193"/>
+    <cfRule type="containsText" priority="375" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:S8">
-    <cfRule type="containsText" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="194"/>
+    <cfRule type="containsText" priority="376" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:S8">
-    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
+    <cfRule type="expression" priority="377" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
+    <cfRule type="expression" priority="378" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
+    <cfRule type="expression" priority="379" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198">
+    <cfRule type="expression" priority="380" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
+    <cfRule type="expression" priority="381" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
+    <cfRule type="expression" priority="382" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:S8">
-    <cfRule type="containsText" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="201"/>
+    <cfRule type="containsText" priority="383" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:S8">
-    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
+    <cfRule type="expression" priority="384" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
+    <cfRule type="expression" priority="385" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="204">
+    <cfRule type="expression" priority="386" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="205">
+    <cfRule type="expression" priority="387" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="206">
+    <cfRule type="expression" priority="388" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="207">
+    <cfRule type="expression" priority="389" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8">
-    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="208">
+    <cfRule type="expression" priority="390" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
+    <cfRule type="expression" priority="391" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
+    <cfRule type="expression" priority="392" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
+    <cfRule type="expression" priority="393" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
+    <cfRule type="expression" priority="394" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
+    <cfRule type="expression" priority="395" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8">
-    <cfRule type="containsText" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="214"/>
+    <cfRule type="containsText" priority="396" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8">
-    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
+    <cfRule type="expression" priority="397" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
+    <cfRule type="expression" priority="398" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
+    <cfRule type="expression" priority="399" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
+    <cfRule type="expression" priority="400" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
+    <cfRule type="expression" priority="401" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
+    <cfRule type="expression" priority="402" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8">
-    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="221"/>
+    <cfRule type="containsText" priority="403" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AN8">
-    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
+    <cfRule type="expression" priority="404" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
+    <cfRule type="expression" priority="405" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
+    <cfRule type="expression" priority="406" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
+    <cfRule type="expression" priority="407" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
+    <cfRule type="expression" priority="408" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
+    <cfRule type="expression" priority="409" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AN8">
-    <cfRule type="containsText" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="228"/>
+    <cfRule type="containsText" priority="410" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AN8">
-    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
+    <cfRule type="expression" priority="411" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
       <formula>$BO8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
+    <cfRule type="expression" priority="412" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
       <formula>$BO8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
+    <cfRule type="expression" priority="413" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
       <formula>$BO8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
+    <cfRule type="expression" priority="414" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
       <formula>$BO8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
+    <cfRule type="expression" priority="415" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
       <formula>$BO8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
+    <cfRule type="expression" priority="416" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
       <formula>$BO8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AN8">
-    <cfRule type="containsText" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="235"/>
+    <cfRule type="containsText" priority="417" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3">
-    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="236"/>
+    <cfRule type="containsText" priority="418" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3">
-    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
+    <cfRule type="expression" priority="419" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
       <formula>$BO3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
+    <cfRule type="expression" priority="420" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
       <formula>$BO3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
+    <cfRule type="expression" priority="421" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
       <formula>$BO3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
+    <cfRule type="expression" priority="422" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
       <formula>$BO3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
+    <cfRule type="expression" priority="423" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
       <formula>$BO3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
+    <cfRule type="expression" priority="424" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
       <formula>$BO3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
-    <cfRule type="containsText" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="243"/>
+    <cfRule type="containsText" priority="425" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
-    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
+    <cfRule type="expression" priority="426" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
       <formula>$BO4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="427" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
+    <cfRule type="expression" priority="427" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
       <formula>$BO4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
+    <cfRule type="expression" priority="428" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
       <formula>$BO4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
+    <cfRule type="expression" priority="429" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110">
       <formula>$BO4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
+    <cfRule type="expression" priority="430" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
       <formula>$BO4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
+    <cfRule type="expression" priority="431" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
       <formula>$BO4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5">
-    <cfRule type="containsText" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="250"/>
+    <cfRule type="containsText" priority="432" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5">
-    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
+    <cfRule type="expression" priority="433" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
       <formula>$BO5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
+    <cfRule type="expression" priority="434" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
       <formula>$BO5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
+    <cfRule type="expression" priority="435" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
       <formula>$BO5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
+    <cfRule type="expression" priority="436" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
       <formula>$BO5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
+    <cfRule type="expression" priority="437" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
       <formula>$BO5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
+    <cfRule type="expression" priority="438" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
       <formula>$BO5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6">
-    <cfRule type="containsText" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="257"/>
+    <cfRule type="containsText" priority="439" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6">
-    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
+    <cfRule type="expression" priority="440" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
       <formula>$BO6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
+    <cfRule type="expression" priority="441" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
       <formula>$BO6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
+    <cfRule type="expression" priority="442" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
       <formula>$BO6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
+    <cfRule type="expression" priority="443" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
       <formula>$BO6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
+    <cfRule type="expression" priority="444" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
       <formula>$BO6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
+    <cfRule type="expression" priority="445" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
       <formula>$BO6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
+    <cfRule type="expression" priority="446" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
       <formula>$BI4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
+    <cfRule type="expression" priority="447" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
       <formula>$BI4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
+    <cfRule type="expression" priority="448" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
       <formula>$BI4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="449" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
+    <cfRule type="expression" priority="449" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
       <formula>$BI4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
+    <cfRule type="expression" priority="450" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
       <formula>$BI4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
+    <cfRule type="expression" priority="451" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132">
       <formula>$BI4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="270"/>
+    <cfRule type="containsText" priority="452" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
+    <cfRule type="expression" priority="453" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
       <formula>$BI5="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
+    <cfRule type="expression" priority="454" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
       <formula>$BI5="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
+    <cfRule type="expression" priority="455" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136">
       <formula>$BI5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
+    <cfRule type="expression" priority="456" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
       <formula>$BI5="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
+    <cfRule type="expression" priority="457" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
       <formula>$BI5="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
+    <cfRule type="expression" priority="458" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
       <formula>$BI5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="277"/>
+    <cfRule type="containsText" priority="459" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
+    <cfRule type="expression" priority="460" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="141">
       <formula>$BI6="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
+    <cfRule type="expression" priority="461" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="142">
       <formula>$BI6="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+    <cfRule type="expression" priority="462" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
       <formula>$BI6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
+    <cfRule type="expression" priority="463" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="144">
       <formula>$BI6="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
+    <cfRule type="expression" priority="464" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="145">
       <formula>$BI6="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
+    <cfRule type="expression" priority="465" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
       <formula>$BI6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="284"/>
+    <cfRule type="containsText" priority="466" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
+    <cfRule type="expression" priority="467" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
       <formula>$BI7="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+    <cfRule type="expression" priority="468" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
       <formula>$BI7="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
+    <cfRule type="expression" priority="469" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150">
       <formula>$BI7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
+    <cfRule type="expression" priority="470" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
       <formula>$BI7="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
+    <cfRule type="expression" priority="471" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
       <formula>$BI7="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
+    <cfRule type="expression" priority="472" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
       <formula>$BI7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="291"/>
+    <cfRule type="containsText" priority="473" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
+    <cfRule type="expression" priority="474" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="155">
       <formula>$BI8="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
+    <cfRule type="expression" priority="475" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="156">
       <formula>$BI8="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
+    <cfRule type="expression" priority="476" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
       <formula>$BI8="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
+    <cfRule type="expression" priority="477" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
       <formula>$BI8="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
+    <cfRule type="expression" priority="478" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159">
       <formula>$BI8="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
+    <cfRule type="expression" priority="479" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
       <formula>$BI8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="298"/>
+    <cfRule type="containsText" priority="480" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="161"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9578,57 +9810,57 @@
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="J2 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9907,18 +10139,18 @@
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:AT2">
-    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="27"/>
+    <cfRule type="containsText" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:AT2">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -9958,74 +10190,74 @@
   </sheetPr>
   <dimension ref="A1:BK4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="72.8421052631579"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.4817813765182"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="44.8825910931174"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="63" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10220,7 +10452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH('Block Sequence'!D2,'KPI Summary'!$D$2:$D$35,0),1)</f>
         <v>25</v>
@@ -10288,7 +10520,6 @@
       <c r="AC2" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
@@ -10344,7 +10575,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH('Block Sequence'!D3,'KPI Summary'!$D$2:$D$35,0),1)</f>
         <v>33</v>
@@ -10369,7 +10600,7 @@
         <v>156</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>233</v>
@@ -10461,7 +10692,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH('Block Sequence'!D4,'KPI Summary'!$D$2:$D$35,0),1)</f>
         <v>34</v>
@@ -10486,10 +10717,10 @@
         <v>156</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -10551,7 +10782,7 @@
         <v>132</v>
       </c>
       <c r="AU4" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
@@ -10605,30 +10836,30 @@
   <conditionalFormatting sqref="H2">
     <cfRule type="containsText" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:Z2">
+  <conditionalFormatting sqref="L2:Z2,H2:I2">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BG2="Templated"</formula>
     </cfRule>
     <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BG2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:BI2">
+  <conditionalFormatting sqref="AE2:BI2,AA2:AB2">
     <cfRule type="containsText" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:BI2">
+  <conditionalFormatting sqref="AE2:BI2,AA2:AB2">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$BG2="Ready"</formula>
     </cfRule>
@@ -10644,58 +10875,58 @@
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BG2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BG2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S3">
-    <cfRule type="containsText" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="36"/>
+    <cfRule type="containsText" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S3">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BG3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$BG3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$BG3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$BG3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$BG3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="containsText" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="41"/>
+    <cfRule type="containsText" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$BG3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$BG3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$BG3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>$BG3="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$BG3="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BG3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK3">
-    <cfRule type="containsText" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="19"/>
+    <cfRule type="containsText" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK3">
     <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -10744,16 +10975,16 @@
     <cfRule type="containsText" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT3">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG3="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG3="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$BG3="Built"</formula>
     </cfRule>
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
@@ -10776,7 +11007,7 @@
     <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>$BG3="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$BG3="Built"</formula>
     </cfRule>
     <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -10813,36 +11044,36 @@
     <cfRule type="containsText" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$BG4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$BG4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$BG4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AK4">
-    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="16"/>
+    <cfRule type="containsText" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AK4">
-    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$BG4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BG4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>$BG4="Done"</formula>
     </cfRule>
     <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
@@ -10855,141 +11086,161 @@
       <formula>$BG4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU4">
-    <cfRule type="containsText" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU4">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+  <conditionalFormatting sqref="AR4:AS4">
+    <cfRule type="containsText" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR4:AS4">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BG4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$BG4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BG4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BG4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>$BG4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$BG4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR4:AS4">
-    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR4:AS4">
-    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+  <conditionalFormatting sqref="AT4">
+    <cfRule type="containsText" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT4">
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$BG4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$BG4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$BG4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$BG4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$BG4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BG4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT4">
-    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT4">
-    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+  <conditionalFormatting sqref="BB4:BC4">
+    <cfRule type="containsText" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB4:BC4">
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$BG4="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$BG4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$BG4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$BG4="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>$BG4="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$BG4&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB4:BC4">
-    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB4:BC4">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>$BG4="Ready"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>$BG4="Removed"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>$BG4="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>$BG4="Built"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>$BG4="Templated"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>$BG4&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BJ2">
-    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="51"/>
+    <cfRule type="containsText" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ2">
-    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$BG2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$BG2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$BG2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$BG2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>$BG2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>$BG2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2">
-    <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="58"/>
+    <cfRule type="containsText" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK2">
-    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>$BG2="Ready"</formula>
     </cfRule>
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BG2="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BG2="Done"</formula>
     </cfRule>
-    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BG2="Built"</formula>
     </cfRule>
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>$BG2="Templated"</formula>
     </cfRule>
-    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>$BG2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="containsText" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="~?" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$BG2="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$BG2="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>$BG2="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>$BG2="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>$BG2="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$BG2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>$BG2="Ready"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>$BG2="Removed"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>$BG2="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>$BG2="Built"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>$BG2="Templated"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$BG2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
